--- a/ControlBook Mensal/clientes/SEBRAE.xlsx
+++ b/ControlBook Mensal/clientes/SEBRAE.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -32,12 +31,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,12 +63,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,2671 +574,2672 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>202302000444</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>01/02/2023 06:38</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>01/02/2023 06:22</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>01/02/2023 08:07</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>01/02/2023 08:21</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="4" t="n">
         <v>44960.56388888889</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=375927066</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>EQUIPAMENTO NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>01:42:00</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>00:01:18</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>01:43:18</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>01:45:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="3" t="n">
         <v>202302000460</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 09:55</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="4" t="n">
         <v>44959.41319444445</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="4" t="n">
         <v>44960.6875</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="4" t="n">
         <v>44963.66875</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="4" t="n">
         <v>44965.69097222222</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>LIGAÇÕES EXTERNAS NÃO COMPLETAM.</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">LIGAÇÕES EXTERNAS PARA NUMEROS DE CELULAR NÃO COMPLETAM.  </t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>CEARÁ</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>O CLIENTE REALIZOU A DESATIVAÇÃO DE UM SERVIÇO DE LIGAÇÃO EXTERNA VIA "CHIPEIRA" GSM, PARA MIGRAR PARA SAÍDA OPERADORA VIVO -E1, PORÉM NÃO COMUNICOU A BASE. AJUSTES DE CONFIGURAÇÃO FORAM REALIZADOS NO DESTINATION DO SEBRAE.</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>12:20:48</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>12:20:48</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="W3" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="2" t="n">
+      <c r="Y3" s="4" t="n">
         <v>1.274305555555556</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>202302000475</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 19:21</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 18:52</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="4" t="n">
         <v>44960.50833333333</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="4" t="n">
         <v>44960.53055555555</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="4" t="n">
         <v>44962.68263888889</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_QUIXERAMOBIM</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> DATA E HORA DO INCIDENTE: 02/02/20223 ÀS 18:52HSSYSTEM NAME: GW | EP_GWFXO_QUIXERAMOBIMNETWORK ADDRESS: 10.7.101.240DETAIL: HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52295&amp;EVENTID=377078424</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>QUIXERAMOBIM</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO SEM INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>02:54:59</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>02:54:59</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="W4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="3" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="3" t="inlineStr">
         <is>
           <t>17:20:00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="3" t="n">
         <v>202302000489</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>03/02/2023 15:10</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>44964.67638888889</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="4" t="n">
         <v>44966.69166666667</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>VERIFICAÇÃO DE RAMAL.</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE!!POR FAVOR VERIFICAR O RAMAL 6608, NÃO ESTÁ FAZENDO NEM RECEBENDO LIGAÇÕES.IP: 10.7.12.5--ADRIANO FREITAS85 3255-6640</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>CEARÁ</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>REGISTRAR RAMAL.</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>05:07:22</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>05:07:22</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="3" t="n">
         <v>202302000498</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>05/02/2023 10:34</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>05/02/2023 10:02</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>05/02/2023 10:32</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>05/02/2023 11:46</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="4" t="n">
         <v>44964.53125</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU IP: 10.7.100.240 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=378883895</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>O GATEWAY VOLTOU A FICAR UP - OPERACIONAL, SEM INTERVENÇÃO DA BASE.</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>01:05:00</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>00:06:37</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>01:11:37</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="3" t="inlineStr">
         <is>
           <t>00:30:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="3" t="n">
         <v>202302000499</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>05/02/2023 17:29</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>05/02/2023 16:32</t>
         </is>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="4" t="n">
         <v>44963.24444444444</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="4" t="n">
         <v>44963.28541666667</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="4" t="n">
         <v>44965.32013888889</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ITAPIPOCA</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ITAPIPOCAIP: 10.7.102.240</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>CEARÁ</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="3" t="inlineStr">
         <is>
           <t>EQUIPAMENTO NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="3" t="inlineStr">
         <is>
           <t>00:05:02</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="3" t="inlineStr">
         <is>
           <t>00:05:02</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="W7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="3" t="inlineStr">
         <is>
           <t>13:20:00</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="3" t="n">
         <v>202302000518</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>06/02/2023 17:50</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>06/02/2023 16:16</t>
         </is>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="4" t="n">
         <v>44965.57708333333</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="4" t="n">
         <v>44965.80277777778</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="4" t="n">
         <v>44967.81736111111</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ARACAT</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" s="3" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ARACATIP: 10.7.103.40</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="3" t="inlineStr">
         <is>
           <t>ARACATI</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" s="3" t="inlineStr">
         <is>
           <t>LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO. CONFORME INFORMAÇÃO VIA CHAMADO RECEBIDA DO CLIENTE POR E-MAIL A CAUSA DA INDISPONIBILIDADE FOI FALTA DE ENERGIA NA LOCALIDADE E O LINK DE INTERNET QUE TAMBÉM FICOU INOPERANTE. APÓS RESTABELECIDO O LINK DE INTERNET O EQUIPAMENTO FOI RESTABELECIDO. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="3" t="inlineStr">
         <is>
           <t>05:46:40</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="3" t="inlineStr">
         <is>
           <t>05:46:40</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="W8" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X8" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y8" s="2" t="n">
+      <c r="Y8" s="4" t="n">
         <v>1.899305555555556</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="3" t="n">
         <v>202302000538</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 20:05</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 19:24</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 20:23</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 21:25</t>
         </is>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="4" t="n">
         <v>44966.89652777778</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_SEBRAE IS DOWN</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_SEBRAE IS DOWN IP: 177.52.23.2 REMOTE: 189.90.174.42 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=47509&amp;EVENTID=380717980</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" s="3" t="inlineStr">
         <is>
           <t>CEARÁ</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R9" s="3" t="inlineStr">
         <is>
           <t>PARA SEU CONHECIMENTO A VPN ENCONTRA-SE UP - OPERACIONAL, SEM INTERVENÇÃO DA BASE.</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" s="3" t="inlineStr">
         <is>
           <t>01:07:00</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" s="3" t="inlineStr">
         <is>
           <t>00:13:12</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V9" s="3" t="inlineStr">
         <is>
           <t>01:20:12</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="W9" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X9" s="3" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" s="3" t="inlineStr">
         <is>
           <t>00:59:00</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="3" t="n">
         <v>202302000540</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 08:48</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 08:48</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 08:48</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 10:55</t>
         </is>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="4" t="n">
         <v>44967.46527777778</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">RAMAL NÃO REGISTRADO. </t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">RAMAL 6655 COM IP 10.7.15.41, NÃO ESTA SE REGISTANDO NO SERVIÇO, FAVOR VERIFICAR. </t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="3" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" s="3" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" s="3" t="inlineStr">
         <is>
           <t>USUÁRIO ESTAVA TENTANTO USAR O APARELHO FÍSICO SENDO QUEO RAMAL ESTAVA REGISTRADO EM UM SOFTPHONE</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="3" t="inlineStr">
         <is>
           <t>01:32:00</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" s="3" t="inlineStr">
         <is>
           <t>00:34:57</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V10" s="3" t="inlineStr">
         <is>
           <t>02:06:57</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="W10" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X10" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="3" t="n">
         <v>202302000554</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 15:51</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 15:51</t>
         </is>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="4" t="n">
         <v>44965.98472222222</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="4" t="n">
         <v>44965.98680555556</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="4" t="n">
         <v>44967.98888888889</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t>VERIFICAÇÃO DE RAMAL.</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE!!RAMAL NÃO ESTÁ RECEBENDO NEM EFETUANDO LIGAÇÕES.RAMAL: ROTA 628 RAMAL 222IP: 10.7.101.224ESCRITÓRIO REGIONAL DO SERTÃO CENTRAL</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="3" t="inlineStr">
         <is>
           <t>QUIXERAMOBIM</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P11" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" s="3" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" s="3" t="inlineStr">
         <is>
           <t>REALIZADO AJUSTES NO OSV E NO APARELHO E O APARELHO VOLTOU A SE REGISTRAR</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T11" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="3" t="inlineStr">
         <is>
           <t>05:24:53</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" s="3" t="inlineStr">
         <is>
           <t>05:24:53</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="W11" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X11" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" s="3" t="inlineStr">
         <is>
           <t>07:47:00</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="3" t="n">
         <v>202302000630</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 16:02</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 16:02</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 16:35</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 16:36</t>
         </is>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="4" t="n">
         <v>44972.75694444445</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>RAMAL NÃO REGISTRADO.</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">RAMAL 6829 COM IP 10.7.18.7, NÃO ESTA SE REGISTRANDO NO SERVIÇO, FAVOR VERIFICAR. </t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" s="3" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" s="3" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R12" s="3" t="inlineStr">
         <is>
           <t>REALIZADO A CONFIGURAÇÃO DO RAMAL E COM ISSO O PROBLEMA ENCONTRA NORMALIZADO</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T12" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U12" s="3" t="inlineStr">
         <is>
           <t>00:33:32</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V12" s="3" t="inlineStr">
         <is>
           <t>00:33:32</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="W12" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X12" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y12" s="3" t="inlineStr">
         <is>
           <t>00:33:00</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="3" t="n">
         <v>202302000632</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 20:55</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 20:32</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 21:32</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 22:18</t>
         </is>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="4" t="n">
         <v>44972.95555555556</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="3" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M13" s="3" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU IP: 10.7.100.240 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=385230869</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13" s="3" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R13" s="3" t="inlineStr">
         <is>
           <t>O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO SEM INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T13" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U13" s="3" t="inlineStr">
         <is>
           <t>01:22:44</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="V13" s="3" t="inlineStr">
         <is>
           <t>01:22:44</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="W13" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X13" s="3" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y13" s="3" t="inlineStr">
         <is>
           <t>01:00:00</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="3" t="n">
         <v>202302000639</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>14/02/2023 14:37</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>14/02/2023 14:37</t>
         </is>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="4" t="n">
         <v>44972.62847222222</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="4" t="n">
         <v>44972.62847222222</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="4" t="n">
         <v>44973.42569444444</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>RAMAL INDISPONÍVEL</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M14" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE  FAVOR VERIFICAR O RAMAL 6804 NO SEBRAE-SEDE QUE ESTÁ COM O IP 10.7.5.33 ATRIBUÍDO PORÉM ESTÁ SEM SINAL, NÃO REALIZA OU RECEBE LIGAÇÕES, NO DISPLAY ESTÁ SEM INFORMAÇÕES E AO VERIFICAR NO NAVEGADOR INFORMA QUE O RAMAL NÃO POSSUI SIP REGISTRATION VINCULADO AO RAMAL. DESDE JÁ AGRADEÇO.</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O14" s="3" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" s="3" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R14" s="3" t="inlineStr">
         <is>
           <t>RAMAL REGISTRADO CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T14" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U14" s="3" t="inlineStr">
         <is>
           <t>05:41:48</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V14" s="3" t="inlineStr">
         <is>
           <t>05:41:48</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="W14" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X14" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y14" s="2" t="n">
+      <c r="Y14" s="4" t="n">
         <v>1.019444444444444</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="3" t="n">
         <v>202302000645</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM RECEBER LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>15/02/2023 07:35</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>15/02/2023 07:35</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>15/02/2023 07:35</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>15/02/2023 08:25</t>
         </is>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="4" t="n">
         <v>44974.40972222222</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K15" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>FALHA AO RECEBER LIGAÇÃO NA LINHA FIXA.</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M15" s="3" t="inlineStr">
         <is>
           <t>A USUÁRIA RELATA FALHA AO RECEBER LIGAÇÕES EXTERNAS NO RAMAL 36912060. O EQUIPAMENTO CHAMA MAS AO ATENDER A LIGAÇÃO CAI.  SEBRAE-CE - CRATEÚS</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O15" s="3" t="inlineStr">
         <is>
           <t>CRATEUS</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" s="3" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R15" s="3" t="inlineStr">
         <is>
           <t>CHAMADO SENDO TRATADO PELO TICKET 202302000591</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S15" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T15" s="3" t="inlineStr">
         <is>
           <t>00:40:00</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U15" s="3" t="inlineStr">
         <is>
           <t>00:10:26</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="V15" s="3" t="inlineStr">
         <is>
           <t>00:50:26</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
+      <c r="W15" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X15" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Y15" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="3" t="n">
         <v>202302000657</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE CLIENTE FUSION</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>15/02/2023 15:29</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="n">
         <v>44973.46180555555</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="4" t="n">
         <v>44975.52430555555</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO DO SOFTFONE.</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M16" s="3" t="inlineStr">
         <is>
           <t>BOM DIA!! SOLICITO A CONFIGURAÇÃO DO SOFTPHONE NO NOTEBOOK. USUÁRIO: MÔNICA ARRUDARAMAL: 6688 TELEFONE DE CONTATO- 85 99135-5231</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N16" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O16" s="3" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P16" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
+      <c r="Q16" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R16" s="3" t="inlineStr">
         <is>
           <t>VERIFICADO QUE CHAMADO ESTÁ SENDO TRATADO NO TICKET 202212004778</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T16" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U16" s="3" t="inlineStr">
         <is>
           <t>05:19:54</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="V16" s="3" t="inlineStr">
         <is>
           <t>05:19:54</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
+      <c r="W16" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X16" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Y16" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="3" t="n">
         <v>202302000658</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE CLIENTE FUSION</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>15/02/2023 15:31</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="n">
         <v>44973.46180555555</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="4" t="n">
         <v>44975.52430555555</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" s="3" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO DO SOFTFONE.</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M17" s="3" t="inlineStr">
         <is>
           <t>BOM DIA!! SOLICITO A CONFIGURAÇÃO DO SOFTPHONE NO NOTEBOOK. USUÁRIO: ROBERTO BARROZO RAMAL: 6619</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O17" s="3" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P17" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">VERIFICADO QUE CHAMADO ESTÁ SENDO TRATADO NO TICKET 202212004778 </t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S17" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T17" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U17" s="3" t="inlineStr">
         <is>
           <t>05:17:48</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="V17" s="3" t="inlineStr">
         <is>
           <t>05:17:48</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="W17" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X17" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y17" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="3" t="n">
         <v>202302000733</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="4" t="n">
         <v>44981.925</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="4" t="n">
         <v>44981.90416666667</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="4" t="n">
         <v>44982.23055555556</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="4" t="n">
         <v>44982.25625</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="4" t="n">
         <v>44984.25972222222</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K18" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M18" s="3" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU
 IP: 10.7.100.240
 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=393679975</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N18" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18" s="3" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P18" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R18" s="3" t="inlineStr">
         <is>
           <t>GATEWAY NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S18" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T18" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U18" s="3" t="inlineStr">
         <is>
           <t>00:27:00</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="V18" s="3" t="inlineStr">
         <is>
           <t>00:27:00</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
+      <c r="W18" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X18" s="3" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Y18" s="3" t="inlineStr">
         <is>
           <t>07:50:00</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="3" t="n">
         <v>202302000734</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>25/02/2023 07:12</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>25/02/2023 06:42</t>
         </is>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="4" t="n">
         <v>44982.99791666667</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="4" t="n">
         <v>44983.24583333333</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="4" t="n">
         <v>44985.25902777778</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="3" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M19" s="3" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=393975056</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" s="3" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O19" s="3" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P19" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R19" s="3" t="inlineStr">
         <is>
           <t>EQUIPAMENTO NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S19" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T19" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U19" s="3" t="inlineStr">
         <is>
           <t>08:29:46</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="V19" s="3" t="inlineStr">
         <is>
           <t>08:29:46</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
+      <c r="W19" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X19" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Y19" s="3" t="inlineStr">
         <is>
           <t>17:15:00</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="5" t="n">
         <v>202302000744</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE ROTA</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>27/02/2023 14:50</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" s="5" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO DE ACESSO</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">TODAS SAÍDAS DE LIGAÇÃO DO ESCRITÓRIO REGIONAL DE BATURITE DEVEM SAIR PELA SEDE. </t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>BATURI</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="P20" s="5" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="T20" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="U20" s="5" t="inlineStr">
         <is>
           <t>07:44:19</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="V20" s="5" t="inlineStr">
         <is>
           <t>07:44:19</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
+      <c r="W20" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X20" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Y20" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="5" t="n">
         <v>202302000762</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>28/02/2023 06:35</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>28/02/2023 06:06</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>28/02/2023 12:21</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>28/02/2023 18:30</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I21" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" s="5" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ARACAT</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52292&amp;EVENTID=396294476</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>ARACATI</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="P21" s="5" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO SEM INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T21" s="5" t="inlineStr">
         <is>
           <t>11:54:00</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="U21" s="5" t="inlineStr">
         <is>
           <t>00:01:15</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="V21" s="5" t="inlineStr">
         <is>
           <t>11:55:15</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
+      <c r="W21" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X21" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Y21" s="3" t="inlineStr">
         <is>
           <t>06:15:00</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="5" t="n">
         <v>202302000763</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE ROTA</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>28/02/2023 09:14</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I22" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" s="5" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO DE ACESSO</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">TODAS SAÍDAS DE LIGAÇÃO DO ESCRITÓRIO REGIONAL DO SERTÃO DE CRATEÚS DEVEM SAIR PELA SEDE. </t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>CRATEUS</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="P22" s="5" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
+      <c r="Q22" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="U22" s="5" t="inlineStr">
         <is>
           <t>11:54:07</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="V22" s="5" t="inlineStr">
         <is>
           <t>11:54:07</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
+      <c r="W22" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X22" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Y22" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="5" t="n">
         <v>202302000770</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>28/02/2023 12:02</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I23" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">MIGRAR PARA SOFTPHONE </t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>SOLICITO CONFIGURAÇÃO DO SOFTPHONE PARA O RAMAL 6604 - FRANCISCO ORLANDO DE SOUSA</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="P23" s="5" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
+      <c r="Q23" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T23" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U23" s="5" t="inlineStr">
         <is>
           <t>09:06:15</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="V23" s="5" t="inlineStr">
         <is>
           <t>09:06:15</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
+      <c r="W23" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X23" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Y23" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
+    <row r="24"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ControlBook Mensal/clientes/SEBRAE.xlsx
+++ b/ControlBook Mensal/clientes/SEBRAE.xlsx
@@ -63,15 +63,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -446,2794 +455,2794 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>202302000444</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>01/02/2023 06:38</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>01/02/2023 06:22</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>01/02/2023 08:07</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>01/02/2023 08:21</t>
         </is>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="5" t="n">
         <v>44960.56388888889</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=375927066</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>EQUIPAMENTO NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>01:42:00</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>00:01:18</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>01:43:18</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>01:45:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>202302000460</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 09:55</t>
         </is>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>44959.41319444445</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>44960.6875</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>44963.66875</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>44965.69097222222</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>LIGAÇÕES EXTERNAS NÃO COMPLETAM.</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">LIGAÇÕES EXTERNAS PARA NUMEROS DE CELULAR NÃO COMPLETAM.  </t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O3" s="3" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>CEARÁ</t>
         </is>
       </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>O CLIENTE REALIZOU A DESATIVAÇÃO DE UM SERVIÇO DE LIGAÇÃO EXTERNA VIA "CHIPEIRA" GSM, PARA MIGRAR PARA SAÍDA OPERADORA VIVO -E1, PORÉM NÃO COMUNICOU A BASE. AJUSTES DE CONFIGURAÇÃO FORAM REALIZADOS NO DESTINATION DO SEBRAE.</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>12:20:48</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>12:20:48</t>
         </is>
       </c>
-      <c r="W3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" s="3" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="5" t="n">
         <v>1.274305555555556</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>202302000475</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 19:21</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 18:52</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>44960.50833333333</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>44960.53055555555</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="5" t="n">
         <v>44962.68263888889</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_QUIXERAMOBIM</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> DATA E HORA DO INCIDENTE: 02/02/20223 ÀS 18:52HSSYSTEM NAME: GW | EP_GWFXO_QUIXERAMOBIMNETWORK ADDRESS: 10.7.101.240DETAIL: HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52295&amp;EVENTID=377078424</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>QUIXERAMOBIM</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO SEM INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="3" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" s="3" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>02:54:59</t>
         </is>
       </c>
-      <c r="V4" s="3" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>02:54:59</t>
         </is>
       </c>
-      <c r="W4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" s="3" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y4" s="3" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>17:20:00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>202302000489</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>03/02/2023 15:10</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="n">
         <v>44964.67638888889</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>44966.69166666667</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>VERIFICAÇÃO DE RAMAL.</t>
         </is>
       </c>
-      <c r="M5" s="3" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE!!POR FAVOR VERIFICAR O RAMAL 6608, NÃO ESTÁ FAZENDO NEM RECEBENDO LIGAÇÕES.IP: 10.7.12.5--ADRIANO FREITAS85 3255-6640</t>
         </is>
       </c>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O5" s="3" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>CEARÁ</t>
         </is>
       </c>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>REGISTRAR RAMAL.</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="3" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>05:07:22</t>
         </is>
       </c>
-      <c r="V5" s="3" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>05:07:22</t>
         </is>
       </c>
-      <c r="W5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" s="3" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>202302000498</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>05/02/2023 10:34</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>05/02/2023 10:02</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>05/02/2023 10:32</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>05/02/2023 11:46</t>
         </is>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>44964.53125</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU IP: 10.7.100.240 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=378883895</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>O GATEWAY VOLTOU A FICAR UP - OPERACIONAL, SEM INTERVENÇÃO DA BASE.</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="3" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>01:05:00</t>
         </is>
       </c>
-      <c r="U6" s="3" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>00:06:37</t>
         </is>
       </c>
-      <c r="V6" s="3" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>01:11:37</t>
         </is>
       </c>
-      <c r="W6" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" s="3" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" s="3" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>00:30:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>202302000499</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>05/02/2023 17:29</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>05/02/2023 16:32</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>44963.24444444444</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="5" t="n">
         <v>44963.28541666667</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="5" t="n">
         <v>44965.32013888889</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ITAPIPOCA</t>
         </is>
       </c>
-      <c r="M7" s="3" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ITAPIPOCAIP: 10.7.102.240</t>
         </is>
       </c>
-      <c r="N7" s="3" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O7" s="3" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CEARÁ</t>
         </is>
       </c>
-      <c r="P7" s="3" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" s="3" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R7" s="3" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>EQUIPAMENTO NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S7" s="3" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="3" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="3" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>00:05:02</t>
         </is>
       </c>
-      <c r="V7" s="3" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>00:05:02</t>
         </is>
       </c>
-      <c r="W7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" s="3" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y7" s="3" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>13:20:00</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>202302000518</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>06/02/2023 17:50</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>06/02/2023 16:16</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>44965.57708333333</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="5" t="n">
         <v>44965.80277777778</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="5" t="n">
         <v>44967.81736111111</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ARACAT</t>
         </is>
       </c>
-      <c r="M8" s="3" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ARACATIP: 10.7.103.40</t>
         </is>
       </c>
-      <c r="N8" s="3" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O8" s="3" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>ARACATI</t>
         </is>
       </c>
-      <c r="P8" s="3" t="inlineStr">
+      <c r="P8" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q8" s="3" t="inlineStr">
+      <c r="Q8" s="4" t="inlineStr">
         <is>
           <t>LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="R8" s="3" t="inlineStr">
+      <c r="R8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO. CONFORME INFORMAÇÃO VIA CHAMADO RECEBIDA DO CLIENTE POR E-MAIL A CAUSA DA INDISPONIBILIDADE FOI FALTA DE ENERGIA NA LOCALIDADE E O LINK DE INTERNET QUE TAMBÉM FICOU INOPERANTE. APÓS RESTABELECIDO O LINK DE INTERNET O EQUIPAMENTO FOI RESTABELECIDO. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S8" s="3" t="inlineStr">
+      <c r="S8" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" s="3" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" s="3" t="inlineStr">
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>05:46:40</t>
         </is>
       </c>
-      <c r="V8" s="3" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>05:46:40</t>
         </is>
       </c>
-      <c r="W8" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X8" s="3" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="n">
+      <c r="Y8" s="5" t="n">
         <v>1.899305555555556</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>202302000538</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 20:05</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 19:24</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 20:23</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 21:25</t>
         </is>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="5" t="n">
         <v>44966.89652777778</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K9" s="3" t="inlineStr">
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_SEBRAE IS DOWN</t>
         </is>
       </c>
-      <c r="M9" s="3" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_SEBRAE IS DOWN IP: 177.52.23.2 REMOTE: 189.90.174.42 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=47509&amp;EVENTID=380717980</t>
         </is>
       </c>
-      <c r="N9" s="3" t="inlineStr">
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O9" s="3" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>CEARÁ</t>
         </is>
       </c>
-      <c r="P9" s="3" t="inlineStr">
+      <c r="P9" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q9" s="3" t="inlineStr">
+      <c r="Q9" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R9" s="3" t="inlineStr">
+      <c r="R9" s="4" t="inlineStr">
         <is>
           <t>PARA SEU CONHECIMENTO A VPN ENCONTRA-SE UP - OPERACIONAL, SEM INTERVENÇÃO DA BASE.</t>
         </is>
       </c>
-      <c r="S9" s="3" t="inlineStr">
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" s="3" t="inlineStr">
+      <c r="T9" s="4" t="inlineStr">
         <is>
           <t>01:07:00</t>
         </is>
       </c>
-      <c r="U9" s="3" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
         <is>
           <t>00:13:12</t>
         </is>
       </c>
-      <c r="V9" s="3" t="inlineStr">
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>01:20:12</t>
         </is>
       </c>
-      <c r="W9" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X9" s="3" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X9" s="4" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y9" s="3" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>00:59:00</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>202302000540</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 08:48</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 08:48</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 08:48</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 10:55</t>
         </is>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="5" t="n">
         <v>44967.46527777778</v>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="K10" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">RAMAL NÃO REGISTRADO. </t>
         </is>
       </c>
-      <c r="M10" s="3" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">RAMAL 6655 COM IP 10.7.15.41, NÃO ESTA SE REGISTANDO NO SERVIÇO, FAVOR VERIFICAR. </t>
         </is>
       </c>
-      <c r="N10" s="3" t="inlineStr">
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O10" s="3" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P10" s="3" t="inlineStr">
+      <c r="P10" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q10" s="3" t="inlineStr">
+      <c r="Q10" s="4" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
       </c>
-      <c r="R10" s="3" t="inlineStr">
+      <c r="R10" s="4" t="inlineStr">
         <is>
           <t>USUÁRIO ESTAVA TENTANTO USAR O APARELHO FÍSICO SENDO QUEO RAMAL ESTAVA REGISTRADO EM UM SOFTPHONE</t>
         </is>
       </c>
-      <c r="S10" s="3" t="inlineStr">
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" s="3" t="inlineStr">
+      <c r="T10" s="4" t="inlineStr">
         <is>
           <t>01:32:00</t>
         </is>
       </c>
-      <c r="U10" s="3" t="inlineStr">
+      <c r="U10" s="4" t="inlineStr">
         <is>
           <t>00:34:57</t>
         </is>
       </c>
-      <c r="V10" s="3" t="inlineStr">
+      <c r="V10" s="4" t="inlineStr">
         <is>
           <t>02:06:57</t>
         </is>
       </c>
-      <c r="W10" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X10" s="3" t="inlineStr">
+      <c r="W10" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X10" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y10" s="3" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>202302000554</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 15:51</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 15:51</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>44965.98472222222</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="5" t="n">
         <v>44965.98680555556</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="5" t="n">
         <v>44967.98888888889</v>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K11" s="3" t="inlineStr">
+      <c r="K11" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="L11" s="4" t="inlineStr">
         <is>
           <t>VERIFICAÇÃO DE RAMAL.</t>
         </is>
       </c>
-      <c r="M11" s="3" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE!!RAMAL NÃO ESTÁ RECEBENDO NEM EFETUANDO LIGAÇÕES.RAMAL: ROTA 628 RAMAL 222IP: 10.7.101.224ESCRITÓRIO REGIONAL DO SERTÃO CENTRAL</t>
         </is>
       </c>
-      <c r="N11" s="3" t="inlineStr">
+      <c r="N11" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O11" s="3" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>QUIXERAMOBIM</t>
         </is>
       </c>
-      <c r="P11" s="3" t="inlineStr">
+      <c r="P11" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q11" s="3" t="inlineStr">
+      <c r="Q11" s="4" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R11" s="3" t="inlineStr">
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>REALIZADO AJUSTES NO OSV E NO APARELHO E O APARELHO VOLTOU A SE REGISTRAR</t>
         </is>
       </c>
-      <c r="S11" s="3" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" s="3" t="inlineStr">
+      <c r="T11" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" s="3" t="inlineStr">
+      <c r="U11" s="4" t="inlineStr">
         <is>
           <t>05:24:53</t>
         </is>
       </c>
-      <c r="V11" s="3" t="inlineStr">
+      <c r="V11" s="4" t="inlineStr">
         <is>
           <t>05:24:53</t>
         </is>
       </c>
-      <c r="W11" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X11" s="3" t="inlineStr">
+      <c r="W11" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X11" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y11" s="3" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>07:47:00</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>202302000630</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 16:02</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 16:02</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 16:35</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 16:36</t>
         </is>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="5" t="n">
         <v>44972.75694444445</v>
       </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="K12" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="L12" s="4" t="inlineStr">
         <is>
           <t>RAMAL NÃO REGISTRADO.</t>
         </is>
       </c>
-      <c r="M12" s="3" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">RAMAL 6829 COM IP 10.7.18.7, NÃO ESTA SE REGISTRANDO NO SERVIÇO, FAVOR VERIFICAR. </t>
         </is>
       </c>
-      <c r="N12" s="3" t="inlineStr">
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O12" s="3" t="inlineStr">
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P12" s="3" t="inlineStr">
+      <c r="P12" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q12" s="3" t="inlineStr">
+      <c r="Q12" s="4" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R12" s="3" t="inlineStr">
+      <c r="R12" s="4" t="inlineStr">
         <is>
           <t>REALIZADO A CONFIGURAÇÃO DO RAMAL E COM ISSO O PROBLEMA ENCONTRA NORMALIZADO</t>
         </is>
       </c>
-      <c r="S12" s="3" t="inlineStr">
+      <c r="S12" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T12" s="3" t="inlineStr">
+      <c r="T12" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U12" s="3" t="inlineStr">
+      <c r="U12" s="4" t="inlineStr">
         <is>
           <t>00:33:32</t>
         </is>
       </c>
-      <c r="V12" s="3" t="inlineStr">
+      <c r="V12" s="4" t="inlineStr">
         <is>
           <t>00:33:32</t>
         </is>
       </c>
-      <c r="W12" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X12" s="3" t="inlineStr">
+      <c r="W12" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X12" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y12" s="3" t="inlineStr">
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>00:33:00</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>202302000632</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 20:55</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 20:32</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 21:32</t>
         </is>
       </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 22:18</t>
         </is>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="5" t="n">
         <v>44972.95555555556</v>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K13" s="3" t="inlineStr">
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M13" s="3" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU IP: 10.7.100.240 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=385230869</t>
         </is>
       </c>
-      <c r="N13" s="3" t="inlineStr">
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O13" s="3" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P13" s="3" t="inlineStr">
+      <c r="P13" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q13" s="3" t="inlineStr">
+      <c r="Q13" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R13" s="3" t="inlineStr">
+      <c r="R13" s="4" t="inlineStr">
         <is>
           <t>O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO SEM INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S13" s="3" t="inlineStr">
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T13" s="3" t="inlineStr">
+      <c r="T13" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" s="3" t="inlineStr">
+      <c r="U13" s="4" t="inlineStr">
         <is>
           <t>01:22:44</t>
         </is>
       </c>
-      <c r="V13" s="3" t="inlineStr">
+      <c r="V13" s="4" t="inlineStr">
         <is>
           <t>01:22:44</t>
         </is>
       </c>
-      <c r="W13" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X13" s="3" t="inlineStr">
+      <c r="W13" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X13" s="4" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y13" s="3" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>01:00:00</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>202302000639</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>14/02/2023 14:37</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>14/02/2023 14:37</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>44972.62847222222</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="5" t="n">
         <v>44972.62847222222</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="5" t="n">
         <v>44973.42569444444</v>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="L14" s="4" t="inlineStr">
         <is>
           <t>RAMAL INDISPONÍVEL</t>
         </is>
       </c>
-      <c r="M14" s="3" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE  FAVOR VERIFICAR O RAMAL 6804 NO SEBRAE-SEDE QUE ESTÁ COM O IP 10.7.5.33 ATRIBUÍDO PORÉM ESTÁ SEM SINAL, NÃO REALIZA OU RECEBE LIGAÇÕES, NO DISPLAY ESTÁ SEM INFORMAÇÕES E AO VERIFICAR NO NAVEGADOR INFORMA QUE O RAMAL NÃO POSSUI SIP REGISTRATION VINCULADO AO RAMAL. DESDE JÁ AGRADEÇO.</t>
         </is>
       </c>
-      <c r="N14" s="3" t="inlineStr">
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O14" s="3" t="inlineStr">
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P14" s="3" t="inlineStr">
+      <c r="P14" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q14" s="3" t="inlineStr">
+      <c r="Q14" s="4" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R14" s="3" t="inlineStr">
+      <c r="R14" s="4" t="inlineStr">
         <is>
           <t>RAMAL REGISTRADO CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S14" s="3" t="inlineStr">
+      <c r="S14" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T14" s="3" t="inlineStr">
+      <c r="T14" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U14" s="3" t="inlineStr">
+      <c r="U14" s="4" t="inlineStr">
         <is>
           <t>05:41:48</t>
         </is>
       </c>
-      <c r="V14" s="3" t="inlineStr">
+      <c r="V14" s="4" t="inlineStr">
         <is>
           <t>05:41:48</t>
         </is>
       </c>
-      <c r="W14" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X14" s="3" t="inlineStr">
+      <c r="W14" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X14" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="n">
+      <c r="Y14" s="5" t="n">
         <v>1.019444444444444</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>202302000645</v>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM RECEBER LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>15/02/2023 07:35</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>15/02/2023 07:35</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>15/02/2023 07:35</t>
         </is>
       </c>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>15/02/2023 08:25</t>
         </is>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="5" t="n">
         <v>44974.40972222222</v>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr">
+      <c r="K15" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L15" s="3" t="inlineStr">
+      <c r="L15" s="4" t="inlineStr">
         <is>
           <t>FALHA AO RECEBER LIGAÇÃO NA LINHA FIXA.</t>
         </is>
       </c>
-      <c r="M15" s="3" t="inlineStr">
+      <c r="M15" s="4" t="inlineStr">
         <is>
           <t>A USUÁRIA RELATA FALHA AO RECEBER LIGAÇÕES EXTERNAS NO RAMAL 36912060. O EQUIPAMENTO CHAMA MAS AO ATENDER A LIGAÇÃO CAI.  SEBRAE-CE - CRATEÚS</t>
         </is>
       </c>
-      <c r="N15" s="3" t="inlineStr">
+      <c r="N15" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O15" s="3" t="inlineStr">
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>CRATEUS</t>
         </is>
       </c>
-      <c r="P15" s="3" t="inlineStr">
+      <c r="P15" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q15" s="3" t="inlineStr">
+      <c r="Q15" s="4" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
       </c>
-      <c r="R15" s="3" t="inlineStr">
+      <c r="R15" s="4" t="inlineStr">
         <is>
           <t>CHAMADO SENDO TRATADO PELO TICKET 202302000591</t>
         </is>
       </c>
-      <c r="S15" s="3" t="inlineStr">
+      <c r="S15" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T15" s="3" t="inlineStr">
+      <c r="T15" s="4" t="inlineStr">
         <is>
           <t>00:40:00</t>
         </is>
       </c>
-      <c r="U15" s="3" t="inlineStr">
+      <c r="U15" s="4" t="inlineStr">
         <is>
           <t>00:10:26</t>
         </is>
       </c>
-      <c r="V15" s="3" t="inlineStr">
+      <c r="V15" s="4" t="inlineStr">
         <is>
           <t>00:50:26</t>
         </is>
       </c>
-      <c r="W15" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X15" s="3" t="inlineStr">
+      <c r="W15" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X15" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y15" s="3" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>202302000657</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE CLIENTE FUSION</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>15/02/2023 15:29</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H16" s="4" t="n">
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="n">
         <v>44973.46180555555</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="5" t="n">
         <v>44975.52430555555</v>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="K16" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L16" s="3" t="inlineStr">
+      <c r="L16" s="4" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO DO SOFTFONE.</t>
         </is>
       </c>
-      <c r="M16" s="3" t="inlineStr">
+      <c r="M16" s="4" t="inlineStr">
         <is>
           <t>BOM DIA!! SOLICITO A CONFIGURAÇÃO DO SOFTPHONE NO NOTEBOOK. USUÁRIO: MÔNICA ARRUDARAMAL: 6688 TELEFONE DE CONTATO- 85 99135-5231</t>
         </is>
       </c>
-      <c r="N16" s="3" t="inlineStr">
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O16" s="3" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P16" s="3" t="inlineStr">
+      <c r="P16" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R16" s="3" t="inlineStr">
+      <c r="Q16" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R16" s="4" t="inlineStr">
         <is>
           <t>VERIFICADO QUE CHAMADO ESTÁ SENDO TRATADO NO TICKET 202212004778</t>
         </is>
       </c>
-      <c r="S16" s="3" t="inlineStr">
+      <c r="S16" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T16" s="3" t="inlineStr">
+      <c r="T16" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U16" s="3" t="inlineStr">
+      <c r="U16" s="4" t="inlineStr">
         <is>
           <t>05:19:54</t>
         </is>
       </c>
-      <c r="V16" s="3" t="inlineStr">
+      <c r="V16" s="4" t="inlineStr">
         <is>
           <t>05:19:54</t>
         </is>
       </c>
-      <c r="W16" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X16" s="3" t="inlineStr">
+      <c r="W16" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X16" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y16" s="3" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>202302000658</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE CLIENTE FUSION</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>15/02/2023 15:31</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H17" s="4" t="n">
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="n">
         <v>44973.46180555555</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="5" t="n">
         <v>44975.52430555555</v>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K17" s="3" t="inlineStr">
+      <c r="K17" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L17" s="3" t="inlineStr">
+      <c r="L17" s="4" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO DO SOFTFONE.</t>
         </is>
       </c>
-      <c r="M17" s="3" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr">
         <is>
           <t>BOM DIA!! SOLICITO A CONFIGURAÇÃO DO SOFTPHONE NO NOTEBOOK. USUÁRIO: ROBERTO BARROZO RAMAL: 6619</t>
         </is>
       </c>
-      <c r="N17" s="3" t="inlineStr">
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O17" s="3" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P17" s="3" t="inlineStr">
+      <c r="P17" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q17" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R17" s="3" t="inlineStr">
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">VERIFICADO QUE CHAMADO ESTÁ SENDO TRATADO NO TICKET 202212004778 </t>
         </is>
       </c>
-      <c r="S17" s="3" t="inlineStr">
+      <c r="S17" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T17" s="3" t="inlineStr">
+      <c r="T17" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U17" s="3" t="inlineStr">
+      <c r="U17" s="4" t="inlineStr">
         <is>
           <t>05:17:48</t>
         </is>
       </c>
-      <c r="V17" s="3" t="inlineStr">
+      <c r="V17" s="4" t="inlineStr">
         <is>
           <t>05:17:48</t>
         </is>
       </c>
-      <c r="W17" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X17" s="3" t="inlineStr">
+      <c r="W17" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X17" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y17" s="3" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>202302000733</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="5" t="n">
         <v>44981.925</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="5" t="n">
         <v>44981.90416666667</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>44982.23055555556</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="5" t="n">
         <v>44982.25625</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" s="5" t="n">
         <v>44984.25972222222</v>
       </c>
-      <c r="J18" s="3" t="inlineStr">
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="K18" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L18" s="3" t="inlineStr">
+      <c r="L18" s="4" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M18" s="3" t="inlineStr">
+      <c r="M18" s="4" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU
 IP: 10.7.100.240
 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=393679975</t>
         </is>
       </c>
-      <c r="N18" s="3" t="inlineStr">
+      <c r="N18" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O18" s="3" t="inlineStr">
+      <c r="O18" s="4" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P18" s="3" t="inlineStr">
+      <c r="P18" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q18" s="3" t="inlineStr">
+      <c r="Q18" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R18" s="3" t="inlineStr">
+      <c r="R18" s="4" t="inlineStr">
         <is>
           <t>GATEWAY NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S18" s="3" t="inlineStr">
+      <c r="S18" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T18" s="3" t="inlineStr">
+      <c r="T18" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U18" s="3" t="inlineStr">
+      <c r="U18" s="4" t="inlineStr">
         <is>
           <t>00:27:00</t>
         </is>
       </c>
-      <c r="V18" s="3" t="inlineStr">
+      <c r="V18" s="4" t="inlineStr">
         <is>
           <t>00:27:00</t>
         </is>
       </c>
-      <c r="W18" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X18" s="3" t="inlineStr">
+      <c r="W18" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X18" s="4" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y18" s="3" t="inlineStr">
+      <c r="Y18" s="4" t="inlineStr">
         <is>
           <t>07:50:00</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>202302000734</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>25/02/2023 07:12</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>25/02/2023 06:42</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5" t="n">
         <v>44982.99791666667</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="5" t="n">
         <v>44983.24583333333</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="5" t="n">
         <v>44985.25902777778</v>
       </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K19" s="3" t="inlineStr">
+      <c r="K19" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L19" s="3" t="inlineStr">
+      <c r="L19" s="4" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M19" s="3" t="inlineStr">
+      <c r="M19" s="4" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=393975056</t>
         </is>
       </c>
-      <c r="N19" s="3" t="inlineStr">
+      <c r="N19" s="4" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O19" s="3" t="inlineStr">
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P19" s="3" t="inlineStr">
+      <c r="P19" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q19" s="3" t="inlineStr">
+      <c r="Q19" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R19" s="3" t="inlineStr">
+      <c r="R19" s="4" t="inlineStr">
         <is>
           <t>EQUIPAMENTO NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S19" s="3" t="inlineStr">
+      <c r="S19" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T19" s="3" t="inlineStr">
+      <c r="T19" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U19" s="3" t="inlineStr">
+      <c r="U19" s="4" t="inlineStr">
         <is>
           <t>08:29:46</t>
         </is>
       </c>
-      <c r="V19" s="3" t="inlineStr">
+      <c r="V19" s="4" t="inlineStr">
         <is>
           <t>08:29:46</t>
         </is>
       </c>
-      <c r="W19" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X19" s="3" t="inlineStr">
+      <c r="W19" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X19" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y19" s="3" t="inlineStr">
+      <c r="Y19" s="4" t="inlineStr">
         <is>
           <t>17:15:00</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="6" t="n">
         <v>202302000744</v>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D20" s="5" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE ROTA</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>27/02/2023 14:50</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H20" s="5" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I20" s="5" t="inlineStr">
+      <c r="I20" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="J20" s="6" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K20" s="5" t="inlineStr">
+      <c r="K20" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L20" s="5" t="inlineStr">
+      <c r="L20" s="6" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO DE ACESSO</t>
         </is>
       </c>
-      <c r="M20" s="5" t="inlineStr">
+      <c r="M20" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">TODAS SAÍDAS DE LIGAÇÃO DO ESCRITÓRIO REGIONAL DE BATURITE DEVEM SAIR PELA SEDE. </t>
         </is>
       </c>
-      <c r="N20" s="5" t="inlineStr">
+      <c r="N20" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O20" s="5" t="inlineStr">
+      <c r="O20" s="6" t="inlineStr">
         <is>
           <t>BATURI</t>
         </is>
       </c>
-      <c r="P20" s="5" t="inlineStr">
+      <c r="P20" s="6" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q20" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R20" s="5" t="inlineStr">
+      <c r="Q20" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R20" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S20" s="5" t="inlineStr">
+      <c r="S20" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T20" s="5" t="inlineStr">
+      <c r="T20" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U20" s="5" t="inlineStr">
+      <c r="U20" s="6" t="inlineStr">
         <is>
           <t>07:44:19</t>
         </is>
       </c>
-      <c r="V20" s="5" t="inlineStr">
+      <c r="V20" s="6" t="inlineStr">
         <is>
           <t>07:44:19</t>
         </is>
       </c>
-      <c r="W20" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X20" s="3" t="inlineStr">
+      <c r="W20" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X20" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y20" s="3" t="inlineStr">
+      <c r="Y20" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="6" t="n">
         <v>202302000762</v>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D21" s="5" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>28/02/2023 06:35</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="F21" s="6" t="inlineStr">
         <is>
           <t>28/02/2023 06:06</t>
         </is>
       </c>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="G21" s="6" t="inlineStr">
         <is>
           <t>28/02/2023 12:21</t>
         </is>
       </c>
-      <c r="H21" s="5" t="inlineStr">
+      <c r="H21" s="6" t="inlineStr">
         <is>
           <t>28/02/2023 18:30</t>
         </is>
       </c>
-      <c r="I21" s="5" t="inlineStr">
+      <c r="I21" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="J21" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K21" s="5" t="inlineStr">
+      <c r="K21" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L21" s="5" t="inlineStr">
+      <c r="L21" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ARACAT</t>
         </is>
       </c>
-      <c r="M21" s="5" t="inlineStr">
+      <c r="M21" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52292&amp;EVENTID=396294476</t>
         </is>
       </c>
-      <c r="N21" s="5" t="inlineStr">
+      <c r="N21" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O21" s="5" t="inlineStr">
+      <c r="O21" s="6" t="inlineStr">
         <is>
           <t>ARACATI</t>
         </is>
       </c>
-      <c r="P21" s="5" t="inlineStr">
+      <c r="P21" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q21" s="5" t="inlineStr">
+      <c r="Q21" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R21" s="5" t="inlineStr">
+      <c r="R21" s="6" t="inlineStr">
         <is>
           <t>O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO SEM INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S21" s="5" t="inlineStr">
+      <c r="S21" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T21" s="5" t="inlineStr">
+      <c r="T21" s="6" t="inlineStr">
         <is>
           <t>11:54:00</t>
         </is>
       </c>
-      <c r="U21" s="5" t="inlineStr">
+      <c r="U21" s="6" t="inlineStr">
         <is>
           <t>00:01:15</t>
         </is>
       </c>
-      <c r="V21" s="5" t="inlineStr">
+      <c r="V21" s="6" t="inlineStr">
         <is>
           <t>11:55:15</t>
         </is>
       </c>
-      <c r="W21" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X21" s="3" t="inlineStr">
+      <c r="W21" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X21" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y21" s="3" t="inlineStr">
+      <c r="Y21" s="4" t="inlineStr">
         <is>
           <t>06:15:00</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="6" t="n">
         <v>202302000763</v>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D22" s="5" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE ROTA</t>
         </is>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>28/02/2023 09:14</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G22" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H22" s="5" t="inlineStr">
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H22" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I22" s="5" t="inlineStr">
+      <c r="I22" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J22" s="6" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="K22" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L22" s="5" t="inlineStr">
+      <c r="L22" s="6" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO DE ACESSO</t>
         </is>
       </c>
-      <c r="M22" s="5" t="inlineStr">
+      <c r="M22" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">TODAS SAÍDAS DE LIGAÇÃO DO ESCRITÓRIO REGIONAL DO SERTÃO DE CRATEÚS DEVEM SAIR PELA SEDE. </t>
         </is>
       </c>
-      <c r="N22" s="5" t="inlineStr">
+      <c r="N22" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O22" s="5" t="inlineStr">
+      <c r="O22" s="6" t="inlineStr">
         <is>
           <t>CRATEUS</t>
         </is>
       </c>
-      <c r="P22" s="5" t="inlineStr">
+      <c r="P22" s="6" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q22" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R22" s="5" t="inlineStr">
+      <c r="Q22" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R22" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S22" s="5" t="inlineStr">
+      <c r="S22" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T22" s="5" t="inlineStr">
+      <c r="T22" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U22" s="5" t="inlineStr">
+      <c r="U22" s="6" t="inlineStr">
         <is>
           <t>11:54:07</t>
         </is>
       </c>
-      <c r="V22" s="5" t="inlineStr">
+      <c r="V22" s="6" t="inlineStr">
         <is>
           <t>11:54:07</t>
         </is>
       </c>
-      <c r="W22" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X22" s="3" t="inlineStr">
+      <c r="W22" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X22" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y22" s="3" t="inlineStr">
+      <c r="Y22" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n">
+      <c r="A23" s="6" t="n">
         <v>202302000770</v>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D23" s="5" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>28/02/2023 12:02</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G23" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H23" s="5" t="inlineStr">
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I23" s="5" t="inlineStr">
+      <c r="I23" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="J23" s="6" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K23" s="5" t="inlineStr">
+      <c r="K23" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L23" s="5" t="inlineStr">
+      <c r="L23" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">MIGRAR PARA SOFTPHONE </t>
         </is>
       </c>
-      <c r="M23" s="5" t="inlineStr">
+      <c r="M23" s="6" t="inlineStr">
         <is>
           <t>SOLICITO CONFIGURAÇÃO DO SOFTPHONE PARA O RAMAL 6604 - FRANCISCO ORLANDO DE SOUSA</t>
         </is>
       </c>
-      <c r="N23" s="5" t="inlineStr">
+      <c r="N23" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O23" s="5" t="inlineStr">
+      <c r="O23" s="6" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P23" s="5" t="inlineStr">
+      <c r="P23" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q23" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R23" s="5" t="inlineStr">
+      <c r="Q23" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R23" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S23" s="5" t="inlineStr">
+      <c r="S23" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T23" s="5" t="inlineStr">
+      <c r="T23" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U23" s="5" t="inlineStr">
+      <c r="U23" s="6" t="inlineStr">
         <is>
           <t>09:06:15</t>
         </is>
       </c>
-      <c r="V23" s="5" t="inlineStr">
+      <c r="V23" s="6" t="inlineStr">
         <is>
           <t>09:06:15</t>
         </is>
       </c>
-      <c r="W23" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X23" s="3" t="inlineStr">
+      <c r="W23" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X23" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y23" s="3" t="inlineStr">
+      <c r="Y23" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>

--- a/ControlBook Mensal/clientes/SEBRAE.xlsx
+++ b/ControlBook Mensal/clientes/SEBRAE.xlsx
@@ -63,19 +63,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -460,2789 +469,2789 @@
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>202302000444</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>01/02/2023 06:38</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>01/02/2023 06:22</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>01/02/2023 08:07</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>01/02/2023 08:21</t>
         </is>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="7" t="n">
         <v>44960.56388888889</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=375927066</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="6" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="6" t="inlineStr">
         <is>
           <t>EQUIPAMENTO NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>01:42:00</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="6" t="inlineStr">
         <is>
           <t>00:01:18</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="6" t="inlineStr">
         <is>
           <t>01:43:18</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="W2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X2" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="6" t="inlineStr">
         <is>
           <t>01:45:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>202302000460</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 09:55</t>
         </is>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="7" t="n">
         <v>44959.41319444445</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="7" t="n">
         <v>44960.6875</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="7" t="n">
         <v>44963.66875</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="7" t="n">
         <v>44965.69097222222</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>LIGAÇÕES EXTERNAS NÃO COMPLETAM.</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">LIGAÇÕES EXTERNAS PARA NUMEROS DE CELULAR NÃO COMPLETAM.  </t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="6" t="inlineStr">
         <is>
           <t>CEARÁ</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="Q3" s="6" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="6" t="inlineStr">
         <is>
           <t>O CLIENTE REALIZOU A DESATIVAÇÃO DE UM SERVIÇO DE LIGAÇÃO EXTERNA VIA "CHIPEIRA" GSM, PARA MIGRAR PARA SAÍDA OPERADORA VIVO -E1, PORÉM NÃO COMUNICOU A BASE. AJUSTES DE CONFIGURAÇÃO FORAM REALIZADOS NO DESTINATION DO SEBRAE.</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="6" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="6" t="inlineStr">
         <is>
           <t>12:20:48</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="6" t="inlineStr">
         <is>
           <t>12:20:48</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="W3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Y3" s="7" t="n">
         <v>1.274305555555556</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <v>202302000475</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 19:21</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 18:52</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="7" t="n">
         <v>44960.50833333333</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="7" t="n">
         <v>44960.53055555555</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="7" t="n">
         <v>44962.68263888889</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_QUIXERAMOBIM</t>
         </is>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> DATA E HORA DO INCIDENTE: 02/02/20223 ÀS 18:52HSSYSTEM NAME: GW | EP_GWFXO_QUIXERAMOBIMNETWORK ADDRESS: 10.7.101.240DETAIL: HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52295&amp;EVENTID=377078424</t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="O4" s="6" t="inlineStr">
         <is>
           <t>QUIXERAMOBIM</t>
         </is>
       </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P4" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="Q4" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="R4" s="6" t="inlineStr">
         <is>
           <t>O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO SEM INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="6" t="inlineStr">
         <is>
           <t>02:54:59</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="6" t="inlineStr">
         <is>
           <t>02:54:59</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="W4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="6" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="6" t="inlineStr">
         <is>
           <t>17:20:00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>202302000489</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>03/02/2023 15:10</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="n">
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="n">
         <v>44964.67638888889</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="7" t="n">
         <v>44966.69166666667</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>VERIFICAÇÃO DE RAMAL.</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE!!POR FAVOR VERIFICAR O RAMAL 6608, NÃO ESTÁ FAZENDO NEM RECEBENDO LIGAÇÕES.IP: 10.7.12.5--ADRIANO FREITAS85 3255-6640</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="6" t="inlineStr">
         <is>
           <t>CEARÁ</t>
         </is>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="Q5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R5" s="6" t="inlineStr">
         <is>
           <t>REGISTRAR RAMAL.</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="6" t="inlineStr">
         <is>
           <t>05:07:22</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="6" t="inlineStr">
         <is>
           <t>05:07:22</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="W5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>202302000498</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>05/02/2023 10:34</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>05/02/2023 10:02</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>05/02/2023 10:32</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>05/02/2023 11:46</t>
         </is>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="7" t="n">
         <v>44964.53125</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K6" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU IP: 10.7.100.240 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=378883895</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O6" s="6" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P6" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q6" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="6" t="inlineStr">
         <is>
           <t>O GATEWAY VOLTOU A FICAR UP - OPERACIONAL, SEM INTERVENÇÃO DA BASE.</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="6" t="inlineStr">
         <is>
           <t>01:05:00</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="6" t="inlineStr">
         <is>
           <t>00:06:37</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="6" t="inlineStr">
         <is>
           <t>01:11:37</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="W6" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="6" t="inlineStr">
         <is>
           <t>00:30:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <v>202302000499</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>05/02/2023 17:29</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>05/02/2023 16:32</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="7" t="n">
         <v>44963.24444444444</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="7" t="n">
         <v>44963.28541666667</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="7" t="n">
         <v>44965.32013888889</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="K7" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="L7" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ITAPIPOCA</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ITAPIPOCAIP: 10.7.102.240</t>
         </is>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="N7" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="O7" s="6" t="inlineStr">
         <is>
           <t>CEARÁ</t>
         </is>
       </c>
-      <c r="P7" s="4" t="inlineStr">
+      <c r="P7" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" s="4" t="inlineStr">
+      <c r="Q7" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="R7" s="6" t="inlineStr">
         <is>
           <t>EQUIPAMENTO NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="6" t="inlineStr">
         <is>
           <t>00:05:02</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="V7" s="6" t="inlineStr">
         <is>
           <t>00:05:02</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="W7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="6" t="inlineStr">
         <is>
           <t>13:20:00</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <v>202302000518</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>06/02/2023 17:50</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>06/02/2023 16:16</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="7" t="n">
         <v>44965.57708333333</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="7" t="n">
         <v>44965.80277777778</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="7" t="n">
         <v>44967.81736111111</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="K8" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" s="4" t="inlineStr">
+      <c r="L8" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ARACAT</t>
         </is>
       </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="M8" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ARACATIP: 10.7.103.40</t>
         </is>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="N8" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="O8" s="6" t="inlineStr">
         <is>
           <t>ARACATI</t>
         </is>
       </c>
-      <c r="P8" s="4" t="inlineStr">
+      <c r="P8" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="inlineStr">
+      <c r="Q8" s="6" t="inlineStr">
         <is>
           <t>LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr">
+      <c r="R8" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO. CONFORME INFORMAÇÃO VIA CHAMADO RECEBIDA DO CLIENTE POR E-MAIL A CAUSA DA INDISPONIBILIDADE FOI FALTA DE ENERGIA NA LOCALIDADE E O LINK DE INTERNET QUE TAMBÉM FICOU INOPERANTE. APÓS RESTABELECIDO O LINK DE INTERNET O EQUIPAMENTO FOI RESTABELECIDO. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="S8" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="T8" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="U8" s="6" t="inlineStr">
         <is>
           <t>05:46:40</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="V8" s="6" t="inlineStr">
         <is>
           <t>05:46:40</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="W8" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X8" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="n">
+      <c r="Y8" s="7" t="n">
         <v>1.899305555555556</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>202302000538</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 20:05</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 19:24</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 20:23</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 21:25</t>
         </is>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="7" t="n">
         <v>44966.89652777778</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="K9" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L9" s="4" t="inlineStr">
+      <c r="L9" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_SEBRAE IS DOWN</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_SEBRAE IS DOWN IP: 177.52.23.2 REMOTE: 189.90.174.42 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=47509&amp;EVENTID=380717980</t>
         </is>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="N9" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="O9" s="6" t="inlineStr">
         <is>
           <t>CEARÁ</t>
         </is>
       </c>
-      <c r="P9" s="4" t="inlineStr">
+      <c r="P9" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="Q9" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="R9" s="6" t="inlineStr">
         <is>
           <t>PARA SEU CONHECIMENTO A VPN ENCONTRA-SE UP - OPERACIONAL, SEM INTERVENÇÃO DA BASE.</t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="S9" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" s="4" t="inlineStr">
+      <c r="T9" s="6" t="inlineStr">
         <is>
           <t>01:07:00</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="U9" s="6" t="inlineStr">
         <is>
           <t>00:13:12</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="V9" s="6" t="inlineStr">
         <is>
           <t>01:20:12</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="W9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X9" s="6" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="6" t="inlineStr">
         <is>
           <t>00:59:00</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <v>202302000540</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 08:48</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 08:48</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 08:48</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 10:55</t>
         </is>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="7" t="n">
         <v>44967.46527777778</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="K10" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" s="4" t="inlineStr">
+      <c r="L10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">RAMAL NÃO REGISTRADO. </t>
         </is>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="M10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">RAMAL 6655 COM IP 10.7.15.41, NÃO ESTA SE REGISTANDO NO SERVIÇO, FAVOR VERIFICAR. </t>
         </is>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="N10" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="O10" s="6" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P10" s="4" t="inlineStr">
+      <c r="P10" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q10" s="4" t="inlineStr">
+      <c r="Q10" s="6" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="R10" s="6" t="inlineStr">
         <is>
           <t>USUÁRIO ESTAVA TENTANTO USAR O APARELHO FÍSICO SENDO QUEO RAMAL ESTAVA REGISTRADO EM UM SOFTPHONE</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="S10" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr">
+      <c r="T10" s="6" t="inlineStr">
         <is>
           <t>01:32:00</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="U10" s="6" t="inlineStr">
         <is>
           <t>00:34:57</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="V10" s="6" t="inlineStr">
         <is>
           <t>02:06:57</t>
         </is>
       </c>
-      <c r="W10" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="W10" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X10" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="5" t="n">
         <v>202302000554</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 15:51</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 15:51</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="7" t="n">
         <v>44965.98472222222</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="7" t="n">
         <v>44965.98680555556</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="7" t="n">
         <v>44967.98888888889</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="6" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K11" s="4" t="inlineStr">
+      <c r="K11" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L11" s="4" t="inlineStr">
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t>VERIFICAÇÃO DE RAMAL.</t>
         </is>
       </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="M11" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE!!RAMAL NÃO ESTÁ RECEBENDO NEM EFETUANDO LIGAÇÕES.RAMAL: ROTA 628 RAMAL 222IP: 10.7.101.224ESCRITÓRIO REGIONAL DO SERTÃO CENTRAL</t>
         </is>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="N11" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="O11" s="6" t="inlineStr">
         <is>
           <t>QUIXERAMOBIM</t>
         </is>
       </c>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="P11" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="Q11" s="6" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="R11" s="6" t="inlineStr">
         <is>
           <t>REALIZADO AJUSTES NO OSV E NO APARELHO E O APARELHO VOLTOU A SE REGISTRAR</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="S11" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" s="4" t="inlineStr">
+      <c r="T11" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="U11" s="6" t="inlineStr">
         <is>
           <t>05:24:53</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="V11" s="6" t="inlineStr">
         <is>
           <t>05:24:53</t>
         </is>
       </c>
-      <c r="W11" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="W11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X11" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="6" t="inlineStr">
         <is>
           <t>07:47:00</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="5" t="n">
         <v>202302000630</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 16:02</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 16:02</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 16:35</t>
         </is>
       </c>
-      <c r="H12" s="4" t="inlineStr">
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 16:36</t>
         </is>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="7" t="n">
         <v>44972.75694444445</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="6" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K12" s="4" t="inlineStr">
+      <c r="K12" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L12" s="4" t="inlineStr">
+      <c r="L12" s="6" t="inlineStr">
         <is>
           <t>RAMAL NÃO REGISTRADO.</t>
         </is>
       </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="M12" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">RAMAL 6829 COM IP 10.7.18.7, NÃO ESTA SE REGISTRANDO NO SERVIÇO, FAVOR VERIFICAR. </t>
         </is>
       </c>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="N12" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O12" s="4" t="inlineStr">
+      <c r="O12" s="6" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P12" s="4" t="inlineStr">
+      <c r="P12" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q12" s="4" t="inlineStr">
+      <c r="Q12" s="6" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="R12" s="6" t="inlineStr">
         <is>
           <t>REALIZADO A CONFIGURAÇÃO DO RAMAL E COM ISSO O PROBLEMA ENCONTRA NORMALIZADO</t>
         </is>
       </c>
-      <c r="S12" s="4" t="inlineStr">
+      <c r="S12" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T12" s="4" t="inlineStr">
+      <c r="T12" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U12" s="4" t="inlineStr">
+      <c r="U12" s="6" t="inlineStr">
         <is>
           <t>00:33:32</t>
         </is>
       </c>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="V12" s="6" t="inlineStr">
         <is>
           <t>00:33:32</t>
         </is>
       </c>
-      <c r="W12" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X12" s="4" t="inlineStr">
+      <c r="W12" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X12" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Y12" s="6" t="inlineStr">
         <is>
           <t>00:33:00</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="5" t="n">
         <v>202302000632</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 20:55</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 20:32</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 21:32</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="H13" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 22:18</t>
         </is>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="7" t="n">
         <v>44972.95555555556</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="K13" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="L13" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU IP: 10.7.100.240 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=385230869</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="N13" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O13" s="4" t="inlineStr">
+      <c r="O13" s="6" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P13" s="4" t="inlineStr">
+      <c r="P13" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="Q13" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="R13" s="6" t="inlineStr">
         <is>
           <t>O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO SEM INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="S13" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T13" s="4" t="inlineStr">
+      <c r="T13" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" s="4" t="inlineStr">
+      <c r="U13" s="6" t="inlineStr">
         <is>
           <t>01:22:44</t>
         </is>
       </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="V13" s="6" t="inlineStr">
         <is>
           <t>01:22:44</t>
         </is>
       </c>
-      <c r="W13" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="W13" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X13" s="6" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="6" t="inlineStr">
         <is>
           <t>01:00:00</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="5" t="n">
         <v>202302000639</v>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>14/02/2023 14:37</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="6" t="inlineStr">
         <is>
           <t>14/02/2023 14:37</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="7" t="n">
         <v>44972.62847222222</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="7" t="n">
         <v>44972.62847222222</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="7" t="n">
         <v>44973.42569444444</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="6" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="K14" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="L14" s="6" t="inlineStr">
         <is>
           <t>RAMAL INDISPONÍVEL</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE  FAVOR VERIFICAR O RAMAL 6804 NO SEBRAE-SEDE QUE ESTÁ COM O IP 10.7.5.33 ATRIBUÍDO PORÉM ESTÁ SEM SINAL, NÃO REALIZA OU RECEBE LIGAÇÕES, NO DISPLAY ESTÁ SEM INFORMAÇÕES E AO VERIFICAR NO NAVEGADOR INFORMA QUE O RAMAL NÃO POSSUI SIP REGISTRATION VINCULADO AO RAMAL. DESDE JÁ AGRADEÇO.</t>
         </is>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="N14" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="O14" s="6" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P14" s="4" t="inlineStr">
+      <c r="P14" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
+      <c r="Q14" s="6" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="R14" s="6" t="inlineStr">
         <is>
           <t>RAMAL REGISTRADO CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="S14" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T14" s="4" t="inlineStr">
+      <c r="T14" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U14" s="4" t="inlineStr">
+      <c r="U14" s="6" t="inlineStr">
         <is>
           <t>05:41:48</t>
         </is>
       </c>
-      <c r="V14" s="4" t="inlineStr">
+      <c r="V14" s="6" t="inlineStr">
         <is>
           <t>05:41:48</t>
         </is>
       </c>
-      <c r="W14" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="W14" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X14" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y14" s="5" t="n">
+      <c r="Y14" s="7" t="n">
         <v>1.019444444444444</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="5" t="n">
         <v>202302000645</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM RECEBER LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 07:35</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 07:35</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G15" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 07:35</t>
         </is>
       </c>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="H15" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 08:25</t>
         </is>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="7" t="n">
         <v>44974.40972222222</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="6" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K15" s="4" t="inlineStr">
+      <c r="K15" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L15" s="4" t="inlineStr">
+      <c r="L15" s="6" t="inlineStr">
         <is>
           <t>FALHA AO RECEBER LIGAÇÃO NA LINHA FIXA.</t>
         </is>
       </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="M15" s="6" t="inlineStr">
         <is>
           <t>A USUÁRIA RELATA FALHA AO RECEBER LIGAÇÕES EXTERNAS NO RAMAL 36912060. O EQUIPAMENTO CHAMA MAS AO ATENDER A LIGAÇÃO CAI.  SEBRAE-CE - CRATEÚS</t>
         </is>
       </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="N15" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O15" s="4" t="inlineStr">
+      <c r="O15" s="6" t="inlineStr">
         <is>
           <t>CRATEUS</t>
         </is>
       </c>
-      <c r="P15" s="4" t="inlineStr">
+      <c r="P15" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="Q15" s="6" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
       </c>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="R15" s="6" t="inlineStr">
         <is>
           <t>CHAMADO SENDO TRATADO PELO TICKET 202302000591</t>
         </is>
       </c>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="S15" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T15" s="4" t="inlineStr">
+      <c r="T15" s="6" t="inlineStr">
         <is>
           <t>00:40:00</t>
         </is>
       </c>
-      <c r="U15" s="4" t="inlineStr">
+      <c r="U15" s="6" t="inlineStr">
         <is>
           <t>00:10:26</t>
         </is>
       </c>
-      <c r="V15" s="4" t="inlineStr">
+      <c r="V15" s="6" t="inlineStr">
         <is>
           <t>00:50:26</t>
         </is>
       </c>
-      <c r="W15" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X15" s="4" t="inlineStr">
+      <c r="W15" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X15" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <v>202302000657</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE CLIENTE FUSION</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 15:29</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G16" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H16" s="5" t="n">
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H16" s="7" t="n">
         <v>44973.46180555555</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="7" t="n">
         <v>44975.52430555555</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="6" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K16" s="4" t="inlineStr">
+      <c r="K16" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L16" s="4" t="inlineStr">
+      <c r="L16" s="6" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO DO SOFTFONE.</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="M16" s="6" t="inlineStr">
         <is>
           <t>BOM DIA!! SOLICITO A CONFIGURAÇÃO DO SOFTPHONE NO NOTEBOOK. USUÁRIO: MÔNICA ARRUDARAMAL: 6688 TELEFONE DE CONTATO- 85 99135-5231</t>
         </is>
       </c>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="N16" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O16" s="4" t="inlineStr">
+      <c r="O16" s="6" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P16" s="4" t="inlineStr">
+      <c r="P16" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q16" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="Q16" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R16" s="6" t="inlineStr">
         <is>
           <t>VERIFICADO QUE CHAMADO ESTÁ SENDO TRATADO NO TICKET 202212004778</t>
         </is>
       </c>
-      <c r="S16" s="4" t="inlineStr">
+      <c r="S16" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T16" s="4" t="inlineStr">
+      <c r="T16" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U16" s="4" t="inlineStr">
+      <c r="U16" s="6" t="inlineStr">
         <is>
           <t>05:19:54</t>
         </is>
       </c>
-      <c r="V16" s="4" t="inlineStr">
+      <c r="V16" s="6" t="inlineStr">
         <is>
           <t>05:19:54</t>
         </is>
       </c>
-      <c r="W16" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X16" s="4" t="inlineStr">
+      <c r="W16" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X16" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <v>202302000658</v>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE CLIENTE FUSION</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 15:31</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H17" s="5" t="n">
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="n">
         <v>44973.46180555555</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="7" t="n">
         <v>44975.52430555555</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="6" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="K17" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="L17" s="6" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO DO SOFTFONE.</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="6" t="inlineStr">
         <is>
           <t>BOM DIA!! SOLICITO A CONFIGURAÇÃO DO SOFTPHONE NO NOTEBOOK. USUÁRIO: ROBERTO BARROZO RAMAL: 6619</t>
         </is>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="N17" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O17" s="4" t="inlineStr">
+      <c r="O17" s="6" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P17" s="4" t="inlineStr">
+      <c r="P17" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="Q17" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R17" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">VERIFICADO QUE CHAMADO ESTÁ SENDO TRATADO NO TICKET 202212004778 </t>
         </is>
       </c>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="S17" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T17" s="4" t="inlineStr">
+      <c r="T17" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="U17" s="6" t="inlineStr">
         <is>
           <t>05:17:48</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="V17" s="6" t="inlineStr">
         <is>
           <t>05:17:48</t>
         </is>
       </c>
-      <c r="W17" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="W17" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X17" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Y17" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="5" t="n">
         <v>202302000733</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="7" t="n">
         <v>44981.925</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="7" t="n">
         <v>44981.90416666667</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="7" t="n">
         <v>44982.23055555556</v>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="7" t="n">
         <v>44982.25625</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="I18" s="7" t="n">
         <v>44984.25972222222</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K18" s="4" t="inlineStr">
+      <c r="K18" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L18" s="4" t="inlineStr">
+      <c r="L18" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU
 IP: 10.7.100.240
 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=393679975</t>
         </is>
       </c>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="N18" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O18" s="4" t="inlineStr">
+      <c r="O18" s="6" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P18" s="4" t="inlineStr">
+      <c r="P18" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="Q18" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="R18" s="6" t="inlineStr">
         <is>
           <t>GATEWAY NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="S18" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T18" s="4" t="inlineStr">
+      <c r="T18" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U18" s="4" t="inlineStr">
+      <c r="U18" s="6" t="inlineStr">
         <is>
           <t>00:27:00</t>
         </is>
       </c>
-      <c r="V18" s="4" t="inlineStr">
+      <c r="V18" s="6" t="inlineStr">
         <is>
           <t>00:27:00</t>
         </is>
       </c>
-      <c r="W18" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X18" s="4" t="inlineStr">
+      <c r="W18" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X18" s="6" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="6" t="inlineStr">
         <is>
           <t>07:50:00</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="5" t="n">
         <v>202302000734</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>25/02/2023 07:12</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="6" t="inlineStr">
         <is>
           <t>25/02/2023 06:42</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="7" t="n">
         <v>44982.99791666667</v>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="7" t="n">
         <v>44983.24583333333</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="7" t="n">
         <v>44985.25902777778</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K19" s="4" t="inlineStr">
+      <c r="K19" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L19" s="4" t="inlineStr">
+      <c r="L19" s="6" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_IGUATU</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52297&amp;EVENTID=393975056</t>
         </is>
       </c>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="N19" s="6" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O19" s="4" t="inlineStr">
+      <c r="O19" s="6" t="inlineStr">
         <is>
           <t>IGUATU</t>
         </is>
       </c>
-      <c r="P19" s="4" t="inlineStr">
+      <c r="P19" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="Q19" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="R19" s="6" t="inlineStr">
         <is>
           <t>EQUIPAMENTO NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="S19" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T19" s="4" t="inlineStr">
+      <c r="T19" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="U19" s="6" t="inlineStr">
         <is>
           <t>08:29:46</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
+      <c r="V19" s="6" t="inlineStr">
         <is>
           <t>08:29:46</t>
         </is>
       </c>
-      <c r="W19" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="W19" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X19" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="6" t="inlineStr">
         <is>
           <t>17:15:00</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="8" t="n">
         <v>202302000744</v>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="9" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D20" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE ROTA</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E20" s="9" t="inlineStr">
         <is>
           <t>27/02/2023 14:50</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G20" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H20" s="6" t="inlineStr">
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G20" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I20" s="6" t="inlineStr">
+      <c r="I20" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J20" s="6" t="inlineStr">
+      <c r="J20" s="9" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K20" s="6" t="inlineStr">
+      <c r="K20" s="9" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L20" s="6" t="inlineStr">
+      <c r="L20" s="9" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO DE ACESSO</t>
         </is>
       </c>
-      <c r="M20" s="6" t="inlineStr">
+      <c r="M20" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">TODAS SAÍDAS DE LIGAÇÃO DO ESCRITÓRIO REGIONAL DE BATURITE DEVEM SAIR PELA SEDE. </t>
         </is>
       </c>
-      <c r="N20" s="6" t="inlineStr">
+      <c r="N20" s="9" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O20" s="6" t="inlineStr">
+      <c r="O20" s="9" t="inlineStr">
         <is>
           <t>BATURI</t>
         </is>
       </c>
-      <c r="P20" s="6" t="inlineStr">
+      <c r="P20" s="9" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q20" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R20" s="6" t="inlineStr">
+      <c r="Q20" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R20" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S20" s="6" t="inlineStr">
+      <c r="S20" s="9" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T20" s="6" t="inlineStr">
+      <c r="T20" s="9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U20" s="6" t="inlineStr">
+      <c r="U20" s="9" t="inlineStr">
         <is>
           <t>07:44:19</t>
         </is>
       </c>
-      <c r="V20" s="6" t="inlineStr">
+      <c r="V20" s="9" t="inlineStr">
         <is>
           <t>07:44:19</t>
         </is>
       </c>
-      <c r="W20" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X20" s="4" t="inlineStr">
+      <c r="W20" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X20" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="Y20" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n">
+      <c r="A21" s="8" t="n">
         <v>202302000762</v>
       </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="B21" s="9" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="D21" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E21" s="6" t="inlineStr">
+      <c r="E21" s="9" t="inlineStr">
         <is>
           <t>28/02/2023 06:35</t>
         </is>
       </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="F21" s="9" t="inlineStr">
         <is>
           <t>28/02/2023 06:06</t>
         </is>
       </c>
-      <c r="G21" s="6" t="inlineStr">
+      <c r="G21" s="9" t="inlineStr">
         <is>
           <t>28/02/2023 12:21</t>
         </is>
       </c>
-      <c r="H21" s="6" t="inlineStr">
+      <c r="H21" s="9" t="inlineStr">
         <is>
           <t>28/02/2023 18:30</t>
         </is>
       </c>
-      <c r="I21" s="6" t="inlineStr">
+      <c r="I21" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J21" s="6" t="inlineStr">
+      <c r="J21" s="9" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K21" s="6" t="inlineStr">
+      <c r="K21" s="9" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L21" s="6" t="inlineStr">
+      <c r="L21" s="9" t="inlineStr">
         <is>
           <t>GW | EP_GWFXO_ARACAT</t>
         </is>
       </c>
-      <c r="M21" s="6" t="inlineStr">
+      <c r="M21" s="9" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52292&amp;EVENTID=396294476</t>
         </is>
       </c>
-      <c r="N21" s="6" t="inlineStr">
+      <c r="N21" s="9" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O21" s="6" t="inlineStr">
+      <c r="O21" s="9" t="inlineStr">
         <is>
           <t>ARACATI</t>
         </is>
       </c>
-      <c r="P21" s="6" t="inlineStr">
+      <c r="P21" s="9" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q21" s="6" t="inlineStr">
+      <c r="Q21" s="9" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R21" s="6" t="inlineStr">
+      <c r="R21" s="9" t="inlineStr">
         <is>
           <t>O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO SEM INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S21" s="6" t="inlineStr">
+      <c r="S21" s="9" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T21" s="6" t="inlineStr">
+      <c r="T21" s="9" t="inlineStr">
         <is>
           <t>11:54:00</t>
         </is>
       </c>
-      <c r="U21" s="6" t="inlineStr">
+      <c r="U21" s="9" t="inlineStr">
         <is>
           <t>00:01:15</t>
         </is>
       </c>
-      <c r="V21" s="6" t="inlineStr">
+      <c r="V21" s="9" t="inlineStr">
         <is>
           <t>11:55:15</t>
         </is>
       </c>
-      <c r="W21" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X21" s="4" t="inlineStr">
+      <c r="W21" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X21" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y21" s="4" t="inlineStr">
+      <c r="Y21" s="6" t="inlineStr">
         <is>
           <t>06:15:00</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="8" t="n">
         <v>202302000763</v>
       </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="B22" s="9" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="D22" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE ROTA</t>
         </is>
       </c>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="E22" s="9" t="inlineStr">
         <is>
           <t>28/02/2023 09:14</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H22" s="6" t="inlineStr">
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G22" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I22" s="6" t="inlineStr">
+      <c r="I22" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J22" s="6" t="inlineStr">
+      <c r="J22" s="9" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K22" s="6" t="inlineStr">
+      <c r="K22" s="9" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L22" s="6" t="inlineStr">
+      <c r="L22" s="9" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO DE ACESSO</t>
         </is>
       </c>
-      <c r="M22" s="6" t="inlineStr">
+      <c r="M22" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">TODAS SAÍDAS DE LIGAÇÃO DO ESCRITÓRIO REGIONAL DO SERTÃO DE CRATEÚS DEVEM SAIR PELA SEDE. </t>
         </is>
       </c>
-      <c r="N22" s="6" t="inlineStr">
+      <c r="N22" s="9" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O22" s="6" t="inlineStr">
+      <c r="O22" s="9" t="inlineStr">
         <is>
           <t>CRATEUS</t>
         </is>
       </c>
-      <c r="P22" s="6" t="inlineStr">
+      <c r="P22" s="9" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q22" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R22" s="6" t="inlineStr">
+      <c r="Q22" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R22" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S22" s="6" t="inlineStr">
+      <c r="S22" s="9" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T22" s="6" t="inlineStr">
+      <c r="T22" s="9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U22" s="6" t="inlineStr">
+      <c r="U22" s="9" t="inlineStr">
         <is>
           <t>11:54:07</t>
         </is>
       </c>
-      <c r="V22" s="6" t="inlineStr">
+      <c r="V22" s="9" t="inlineStr">
         <is>
           <t>11:54:07</t>
         </is>
       </c>
-      <c r="W22" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X22" s="4" t="inlineStr">
+      <c r="W22" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X22" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y22" s="4" t="inlineStr">
+      <c r="Y22" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="8" t="n">
         <v>202302000770</v>
       </c>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="B23" s="9" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr">
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D23" s="6" t="inlineStr">
+      <c r="D23" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E23" s="6" t="inlineStr">
+      <c r="E23" s="9" t="inlineStr">
         <is>
           <t>28/02/2023 12:02</t>
         </is>
       </c>
-      <c r="F23" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G23" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H23" s="6" t="inlineStr">
+      <c r="F23" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I23" s="6" t="inlineStr">
+      <c r="I23" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J23" s="6" t="inlineStr">
+      <c r="J23" s="9" t="inlineStr">
         <is>
           <t>INFORMATICA SEBRAE</t>
         </is>
       </c>
-      <c r="K23" s="6" t="inlineStr">
+      <c r="K23" s="9" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L23" s="6" t="inlineStr">
+      <c r="L23" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">MIGRAR PARA SOFTPHONE </t>
         </is>
       </c>
-      <c r="M23" s="6" t="inlineStr">
+      <c r="M23" s="9" t="inlineStr">
         <is>
           <t>SOLICITO CONFIGURAÇÃO DO SOFTPHONE PARA O RAMAL 6604 - FRANCISCO ORLANDO DE SOUSA</t>
         </is>
       </c>
-      <c r="N23" s="6" t="inlineStr">
+      <c r="N23" s="9" t="inlineStr">
         <is>
           <t>SEBRAE</t>
         </is>
       </c>
-      <c r="O23" s="6" t="inlineStr">
+      <c r="O23" s="9" t="inlineStr">
         <is>
           <t>SEDE</t>
         </is>
       </c>
-      <c r="P23" s="6" t="inlineStr">
+      <c r="P23" s="9" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q23" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R23" s="6" t="inlineStr">
+      <c r="Q23" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R23" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S23" s="6" t="inlineStr">
+      <c r="S23" s="9" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T23" s="6" t="inlineStr">
+      <c r="T23" s="9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U23" s="6" t="inlineStr">
+      <c r="U23" s="9" t="inlineStr">
         <is>
           <t>09:06:15</t>
         </is>
       </c>
-      <c r="V23" s="6" t="inlineStr">
+      <c r="V23" s="9" t="inlineStr">
         <is>
           <t>09:06:15</t>
         </is>
       </c>
-      <c r="W23" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X23" s="4" t="inlineStr">
+      <c r="W23" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X23" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y23" s="4" t="inlineStr">
+      <c r="Y23" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
